--- a/kbe/tools/xlsx2py/xlsx_template/avatar_init.xlsx
+++ b/kbe/tools/xlsx2py/xlsx_template/avatar_init.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>所在场景</t>
   </si>
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>spawnPos[][funcEval]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed[][funcFloat]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -829,27 +837,28 @@
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1"/>
     <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="10.6640625" style="1"/>
-    <col min="19" max="19" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="10.6640625" style="1"/>
-    <col min="31" max="31" width="18.21875" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.6640625" style="1"/>
+    <col min="10" max="10" width="10.6640625" style="6"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="10.6640625" style="1"/>
+    <col min="20" max="20" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="31" width="10.6640625" style="1"/>
+    <col min="32" max="32" width="18.21875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -877,74 +886,77 @@
       <c r="I1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="4" customFormat="1">
+    <row r="2" spans="1:32" s="4" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -973,73 +985,76 @@
         <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" s="6" t="s">
         <v>75</v>
       </c>
@@ -1067,74 +1082,77 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>158</v>
+      <c r="J3" s="6">
+        <v>5.5</v>
       </c>
       <c r="K3" s="1">
         <v>158</v>
       </c>
       <c r="L3" s="1">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="M3" s="1">
         <v>97</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>150</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>10</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>50</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>13</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>5</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>15</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>12</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>10</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>48</v>
-      </c>
-      <c r="X3" s="1">
-        <v>15</v>
       </c>
       <c r="Y3" s="1">
         <v>15</v>
       </c>
       <c r="Z3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="1">
         <v>55</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>19</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>11</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>20</v>
       </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
       <c r="AE3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
@@ -1162,74 +1180,77 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <v>158</v>
+      <c r="J4" s="6">
+        <v>5.5</v>
       </c>
       <c r="K4" s="1">
         <v>158</v>
       </c>
       <c r="L4" s="1">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="M4" s="1">
         <v>97</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>150</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>10</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>50</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>13</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>5</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>15</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>12</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>10</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>48</v>
-      </c>
-      <c r="X4" s="1">
-        <v>15</v>
       </c>
       <c r="Y4" s="1">
         <v>15</v>
       </c>
       <c r="Z4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="1">
         <v>55</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>19</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>11</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>20</v>
       </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
       <c r="AE4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -1257,70 +1278,73 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>158</v>
+      <c r="J5" s="6">
+        <v>5.5</v>
       </c>
       <c r="K5" s="1">
         <v>158</v>
       </c>
       <c r="L5" s="1">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="M5" s="1">
         <v>97</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>150</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>50</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>13</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>5</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>15</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>12</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>10</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>48</v>
-      </c>
-      <c r="X5" s="1">
-        <v>15</v>
       </c>
       <c r="Y5" s="1">
         <v>15</v>
       </c>
       <c r="Z5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="1">
         <v>55</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>19</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>11</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>20</v>
       </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
       <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
         <v>0</v>
       </c>
     </row>
